--- a/词根整理.xlsx
+++ b/词根整理.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="273">
   <si>
     <t>原词</t>
   </si>
@@ -41,1036 +41,811 @@
     <t>词根</t>
   </si>
   <si>
-    <t>kephalē</t>
-  </si>
-  <si>
-    <t>"cephal-", 头（希腊语）</t>
-  </si>
-  <si>
-    <t>cephal-</t>
-  </si>
-  <si>
-    <t>abdomen</t>
-  </si>
-  <si>
-    <t>"abdomin-", 腹部（拉丁语）</t>
-  </si>
-  <si>
-    <t>abdomin-</t>
+    <t>haima</t>
+  </si>
+  <si>
+    <t>"hemat/o-", 血（希腊语）</t>
+  </si>
+  <si>
+    <t>hemat/o-</t>
+  </si>
+  <si>
+    <t>poiesis</t>
+  </si>
+  <si>
+    <t>"poie-", 制造，产生（希腊语）</t>
+  </si>
+  <si>
+    <t>poie-</t>
+  </si>
+  <si>
+    <t>forma</t>
+  </si>
+  <si>
+    <t>"form-", 形状，形成（拉丁语）</t>
+  </si>
+  <si>
+    <t>form-</t>
+  </si>
+  <si>
+    <t>osteon</t>
+  </si>
+  <si>
+    <t>"oste/o-", 骨（希腊语）</t>
+  </si>
+  <si>
+    <t>oste/o-</t>
+  </si>
+  <si>
+    <t>kytos</t>
+  </si>
+  <si>
+    <t>"cyt-", 细胞（希腊语）</t>
+  </si>
+  <si>
+    <t>cyt-</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>"oss-", 骨（拉丁语）</t>
+  </si>
+  <si>
+    <t>oss-</t>
+  </si>
+  <si>
+    <t>cartilago</t>
+  </si>
+  <si>
+    <t>"cartilagin-", 软骨（拉丁语）</t>
+  </si>
+  <si>
+    <t>cartilagin-</t>
+  </si>
+  <si>
+    <t>facere</t>
+  </si>
+  <si>
+    <t>"fic-", 使成为，制作（拉丁语）</t>
+  </si>
+  <si>
+    <t>fic-</t>
+  </si>
+  <si>
+    <t>blastos</t>
+  </si>
+  <si>
+    <t>"blast-", 胚芽，幼细胞（希腊语）</t>
+  </si>
+  <si>
+    <t>blast-</t>
+  </si>
+  <si>
+    <t>axis</t>
+  </si>
+  <si>
+    <t>"axi-", 轴（拉丁语）</t>
+  </si>
+  <si>
+    <t>axi-</t>
+  </si>
+  <si>
+    <t>skeletos</t>
+  </si>
+  <si>
+    <t>"skelet-", 干枯的身体，木乃伊（希腊语）</t>
+  </si>
+  <si>
+    <t>skelet-</t>
+  </si>
+  <si>
+    <t>appendere</t>
+  </si>
+  <si>
+    <t>"append-", 悬挂，附加（拉丁语）</t>
+  </si>
+  <si>
+    <t>append-</t>
+  </si>
+  <si>
+    <t>kranion</t>
+  </si>
+  <si>
+    <t>"crani-", 头骨（希腊语）</t>
+  </si>
+  <si>
+    <t>crani-</t>
+  </si>
+  <si>
+    <t>facies</t>
+  </si>
+  <si>
+    <t>"faci-", 面，脸（拉丁语）</t>
+  </si>
+  <si>
+    <t>faci-</t>
+  </si>
+  <si>
+    <t>paries</t>
+  </si>
+  <si>
+    <t>"pariet-", 墙壁（拉丁语）</t>
+  </si>
+  <si>
+    <t>pariet-</t>
+  </si>
+  <si>
+    <t>tempus</t>
+  </si>
+  <si>
+    <t>"tempor-", 太阳穴，时间（拉丁语）</t>
+  </si>
+  <si>
+    <t>tempor-</t>
+  </si>
+  <si>
+    <t>ethmos</t>
+  </si>
+  <si>
+    <t>"ethm-", 筛子（希腊语）</t>
+  </si>
+  <si>
+    <t>ethm-</t>
+  </si>
+  <si>
+    <t>sphen</t>
+  </si>
+  <si>
+    <t>"sphen-", 楔子（希腊语）</t>
+  </si>
+  <si>
+    <t>sphen-</t>
+  </si>
+  <si>
+    <t>occiput</t>
+  </si>
+  <si>
+    <t>"occipit-", 头的后部（拉丁语）</t>
+  </si>
+  <si>
+    <t>occipit-</t>
+  </si>
+  <si>
+    <t>mandere</t>
+  </si>
+  <si>
+    <t>"mand-", 咀嚼（拉丁语）</t>
+  </si>
+  <si>
+    <t>mand-</t>
+  </si>
+  <si>
+    <t>maxilla</t>
+  </si>
+  <si>
+    <t>"maxill-", 颚（拉丁语）</t>
+  </si>
+  <si>
+    <t>maxill-</t>
+  </si>
+  <si>
+    <t>zygon</t>
+  </si>
+  <si>
+    <t>"zygo-", 轭，连接（希腊语）</t>
+  </si>
+  <si>
+    <t>zygo-</t>
+  </si>
+  <si>
+    <t>vomer</t>
+  </si>
+  <si>
+    <t>"vomer", 犁头（拉丁语）</t>
+  </si>
+  <si>
+    <t>palatum</t>
+  </si>
+  <si>
+    <t>"palat-", 腭（拉丁语）</t>
+  </si>
+  <si>
+    <t>palat-</t>
+  </si>
+  <si>
+    <t>nasus</t>
+  </si>
+  <si>
+    <t>"nas-", 鼻（拉丁语）</t>
+  </si>
+  <si>
+    <t>nas-</t>
+  </si>
+  <si>
+    <t>lacrima</t>
+  </si>
+  <si>
+    <t>"lacrim-", 泪（拉丁语）</t>
+  </si>
+  <si>
+    <t>lacrim-</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>"bon-", 骨（古英语）</t>
+  </si>
+  <si>
+    <t>bon-</t>
+  </si>
+  <si>
+    <t>vertebra</t>
+  </si>
+  <si>
+    <t>"vertebr-", 椎骨，关节，转动点（拉丁语）</t>
+  </si>
+  <si>
+    <t>vertebr-</t>
+  </si>
+  <si>
+    <t>columna</t>
+  </si>
+  <si>
+    <t>"column-", 柱子（拉丁语）</t>
+  </si>
+  <si>
+    <t>column-</t>
+  </si>
+  <si>
+    <t>sternon</t>
+  </si>
+  <si>
+    <t>"stern-", 胸部，胸骨（希腊语）</t>
+  </si>
+  <si>
+    <t>stern-</t>
+  </si>
+  <si>
+    <t>ribb</t>
+  </si>
+  <si>
+    <t>"rib", 肋骨（古英语）</t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t>cervix</t>
+  </si>
+  <si>
+    <t>"cervic-", 颈（拉丁语）</t>
+  </si>
+  <si>
+    <t>cervic-</t>
+  </si>
+  <si>
+    <t>thorax</t>
+  </si>
+  <si>
+    <t>"thorac-", 胸部，胸腔（希腊语）</t>
+  </si>
+  <si>
+    <t>thorac-</t>
+  </si>
+  <si>
+    <t>lumbus</t>
+  </si>
+  <si>
+    <t>"lumb-", 腰（拉丁语）</t>
+  </si>
+  <si>
+    <t>lumb-</t>
+  </si>
+  <si>
+    <t>kokkyx</t>
+  </si>
+  <si>
+    <t>"coccyg-", 杜鹃鸟，因形状像鸟喙（希腊语）</t>
+  </si>
+  <si>
+    <t>coccyg-</t>
+  </si>
+  <si>
+    <t>pectus</t>
+  </si>
+  <si>
+    <t>"pector-", 胸部（拉丁语）</t>
+  </si>
+  <si>
+    <t>pector-</t>
+  </si>
+  <si>
+    <t>gyrdan</t>
+  </si>
+  <si>
+    <t>"gird-", 围绕，束缚（古英语）</t>
+  </si>
+  <si>
+    <t>gird-</t>
   </si>
   <si>
     <t>pelvis</t>
   </si>
   <si>
-    <t>"pelv-", 骨盆（拉丁语）</t>
+    <t>"pelv-", 盆（拉丁语）</t>
   </si>
   <si>
     <t>pelv-</t>
   </si>
   <si>
-    <t>inferus</t>
-  </si>
-  <si>
-    <t>"infer-", 在……之下（拉丁语）</t>
-  </si>
-  <si>
-    <t>infer-</t>
-  </si>
-  <si>
-    <t>os, oris</t>
-  </si>
-  <si>
-    <t>"or-", 口（拉丁语）</t>
-  </si>
-  <si>
-    <t>or-</t>
-  </si>
-  <si>
-    <t>eln</t>
-  </si>
-  <si>
-    <t>"el-", 前臂（古英语）</t>
-  </si>
-  <si>
-    <t>el-</t>
-  </si>
-  <si>
-    <t>wrist</t>
-  </si>
-  <si>
-    <t>"wrist", 手腕（古英语）</t>
+    <t>clavis</t>
+  </si>
+  <si>
+    <t>"clav-", 钥匙，锁，因其形状（拉丁语）</t>
+  </si>
+  <si>
+    <t>clav-</t>
+  </si>
+  <si>
+    <t>umerus</t>
+  </si>
+  <si>
+    <t>"humer-", 上臂，肩（拉丁语）</t>
+  </si>
+  <si>
+    <t>humer-</t>
+  </si>
+  <si>
+    <t>ulna</t>
+  </si>
+  <si>
+    <t>"uln-", 肘，前臂（拉丁语）</t>
+  </si>
+  <si>
+    <t>uln-</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>"radi-", 辐条，射线（拉丁语）</t>
+  </si>
+  <si>
+    <t>radi-</t>
+  </si>
+  <si>
+    <t>karpos</t>
+  </si>
+  <si>
+    <t>"carp-", 手腕（希腊语）</t>
+  </si>
+  <si>
+    <t>carp-</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>"meta-", 在...之后，超越（希腊语）</t>
+  </si>
+  <si>
+    <t>meta-</t>
+  </si>
+  <si>
+    <t>phalanx</t>
+  </si>
+  <si>
+    <t>"phalang-", 圆木，长列，战斗队形（希腊语）</t>
+  </si>
+  <si>
+    <t>phalang-</t>
+  </si>
+  <si>
+    <t>coxa</t>
+  </si>
+  <si>
+    <t>"cox-", 髋（拉丁语）</t>
+  </si>
+  <si>
+    <t>cox-</t>
+  </si>
+  <si>
+    <t>in-</t>
+  </si>
+  <si>
+    <t>"in-", 无，非，否定前缀（拉丁语）</t>
+  </si>
+  <si>
+    <t>nomen</t>
+  </si>
+  <si>
+    <t>"nomin-", 名字（拉丁语）</t>
+  </si>
+  <si>
+    <t>nomin-</t>
+  </si>
+  <si>
+    <t>ilium</t>
+  </si>
+  <si>
+    <t>"ili-", 胁腹（拉丁语）</t>
+  </si>
+  <si>
+    <t>ili-</t>
+  </si>
+  <si>
+    <t>ischion</t>
+  </si>
+  <si>
+    <t>"ischi-", 髋关节（希腊语）</t>
+  </si>
+  <si>
+    <t>ischi-</t>
+  </si>
+  <si>
+    <t>pubes</t>
+  </si>
+  <si>
+    <t>"pub-", 成年，阴部（拉丁语）</t>
+  </si>
+  <si>
+    <t>pub-</t>
+  </si>
+  <si>
+    <t>femur</t>
+  </si>
+  <si>
+    <t>"femur", 大腿，股骨（拉丁语）</t>
+  </si>
+  <si>
+    <t>tibia</t>
+  </si>
+  <si>
+    <t>"tibi-", 笛子，胫骨（拉丁语）</t>
+  </si>
+  <si>
+    <t>tibi-</t>
+  </si>
+  <si>
+    <t>fibula</t>
+  </si>
+  <si>
+    <t>"fibul-", 扣针，别针，因其与胫骨并列像别针（拉丁语）</t>
+  </si>
+  <si>
+    <t>fibul-</t>
+  </si>
+  <si>
+    <t>tarsos</t>
+  </si>
+  <si>
+    <t>"tars-", 足底，脚踝（希腊语）</t>
+  </si>
+  <si>
+    <t>tars-</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>"dia-", 通过，分开（希腊语）</t>
+  </si>
+  <si>
+    <t>dia-</t>
+  </si>
+  <si>
+    <t>physis</t>
+  </si>
+  <si>
+    <t>"phys-", 生长，自然（希腊语）</t>
+  </si>
+  <si>
+    <t>phys-</t>
+  </si>
+  <si>
+    <t>epi</t>
+  </si>
+  <si>
+    <t>"epi-", 在...之上，外部（希腊语）</t>
+  </si>
+  <si>
+    <t>epi-</t>
+  </si>
+  <si>
+    <t>peri</t>
+  </si>
+  <si>
+    <t>"peri-", 周围，环绕（希腊语）</t>
+  </si>
+  <si>
+    <t>peri-</t>
+  </si>
+  <si>
+    <t>com-</t>
+  </si>
+  <si>
+    <t>"com-", 共同，一起（拉丁语）</t>
+  </si>
+  <si>
+    <t>medulla</t>
+  </si>
+  <si>
+    <t>"medull-", 髓，核心（拉丁语）</t>
+  </si>
+  <si>
+    <t>medull-</t>
+  </si>
+  <si>
+    <t>cavus</t>
+  </si>
+  <si>
+    <t>"cav-", 中空的（拉丁语）</t>
+  </si>
+  <si>
+    <t>cav-</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>"pro-", 向前，在前（拉丁语）</t>
+  </si>
+  <si>
+    <t>pro-</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>"de-", 向下，离开（拉丁语）</t>
+  </si>
+  <si>
+    <t>de-</t>
+  </si>
+  <si>
+    <t>kondylos</t>
+  </si>
+  <si>
+    <t>"condyl-", 关节 knuckle，突起（希腊语）</t>
+  </si>
+  <si>
+    <t>condyl-</t>
+  </si>
+  <si>
+    <t>tuber</t>
+  </si>
+  <si>
+    <t>"tuber-", 肿块，隆起（拉丁语）</t>
+  </si>
+  <si>
+    <t>tuber-</t>
+  </si>
+  <si>
+    <t>sinus</t>
+  </si>
+  <si>
+    <t>"sinu-", 弯曲，凹陷，腔（拉丁语）</t>
+  </si>
+  <si>
+    <t>sinu-</t>
+  </si>
+  <si>
+    <t>forare</t>
+  </si>
+  <si>
+    <t>"for-", 钻孔，穿透（拉丁语）</t>
+  </si>
+  <si>
+    <t>for-</t>
+  </si>
+  <si>
+    <t>ovum</t>
+  </si>
+  <si>
+    <t>"ov-", 卵，因滑液粘稠度似蛋清（拉丁语）</t>
+  </si>
+  <si>
+    <t>ov-</t>
+  </si>
+  <si>
+    <t>fibra</t>
+  </si>
+  <si>
+    <t>"fibr-", 纤维（拉丁语）</t>
+  </si>
+  <si>
+    <t>fibr-</t>
+  </si>
+  <si>
+    <t>membrana</t>
+  </si>
+  <si>
+    <t>"membran-", 薄皮，膜（拉丁语）</t>
+  </si>
+  <si>
+    <t>membran-</t>
+  </si>
+  <si>
+    <t>böllr</t>
+  </si>
+  <si>
+    <t>"ball-", 球（古诺尔斯语）</t>
+  </si>
+  <si>
+    <t>ball-</t>
+  </si>
+  <si>
+    <t>ligare</t>
+  </si>
+  <si>
+    <t>"lig-", 捆绑，连接（拉丁语）</t>
+  </si>
+  <si>
+    <t>lig-</t>
+  </si>
+  <si>
+    <t>bursa</t>
+  </si>
+  <si>
+    <t>"burs-", 皮包，囊（拉丁语）</t>
+  </si>
+  <si>
+    <t>burs-</t>
+  </si>
+  <si>
+    <t>syn</t>
+  </si>
+  <si>
+    <t>"sym-", 共同，一起，同 syn-（希腊语）</t>
+  </si>
+  <si>
+    <t>sym-</t>
+  </si>
+  <si>
+    <t>mys</t>
+  </si>
+  <si>
+    <t>"my/o-", 肌肉（希腊语）</t>
+  </si>
+  <si>
+    <t>my/o-</t>
+  </si>
+  <si>
+    <t>neuron</t>
+  </si>
+  <si>
+    <t>"neur-", 神经（希腊语）</t>
+  </si>
+  <si>
+    <t>neur-</t>
+  </si>
+  <si>
+    <t>smoð</t>
+  </si>
+  <si>
+    <t>"smooth", 平滑的（古英语）</t>
+  </si>
+  <si>
+    <t>smooth</t>
+  </si>
+  <si>
+    <t>kardia</t>
+  </si>
+  <si>
+    <t>"cardi-", 心脏（希腊语）</t>
+  </si>
+  <si>
+    <t>cardi-</t>
+  </si>
+  <si>
+    <t>fascia</t>
+  </si>
+  <si>
+    <t>"fasci-", 带子，束（拉丁语）</t>
+  </si>
+  <si>
+    <t>fasci-</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>"ab-", 离开，从（拉丁语）</t>
+  </si>
+  <si>
+    <t>ab-</t>
+  </si>
+  <si>
+    <t>ducere</t>
+  </si>
+  <si>
+    <t>"duct-", 引导，拉（拉丁语）</t>
+  </si>
+  <si>
+    <t>duct-</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>"ad-", 向，朝向（拉丁语）</t>
+  </si>
+  <si>
+    <t>ad-</t>
+  </si>
+  <si>
+    <t>dorsum</t>
+  </si>
+  <si>
+    <t>"dors/i-", 背部（拉丁语）</t>
+  </si>
+  <si>
+    <t>dors/i-</t>
+  </si>
+  <si>
+    <t>planta</t>
+  </si>
+  <si>
+    <t>"plant-", 足底（拉丁语）</t>
+  </si>
+  <si>
+    <t>plant-</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>"e-", 出，向外，同 ex-（拉丁语）</t>
+  </si>
+  <si>
+    <t>e-</t>
+  </si>
+  <si>
+    <t>pronus</t>
+  </si>
+  <si>
+    <t>"pron-", 向前倾斜，俯卧（拉丁语）</t>
+  </si>
+  <si>
+    <t>pron-</t>
   </si>
   <si>
     <t>supinus</t>
   </si>
   <si>
-    <t>"supin-", 仰卧的（拉丁语）</t>
+    <t>"supin-", 仰卧，向后弯曲（拉丁语）</t>
   </si>
   <si>
     <t>supin-</t>
   </si>
   <si>
-    <t>pronus</t>
-  </si>
-  <si>
-    <t>"pron-", 向前的，俯卧的（拉丁语）</t>
-  </si>
-  <si>
-    <t>pron-</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>"coron-", 冠（拉丁语）</t>
-  </si>
-  <si>
-    <t>coron-</t>
-  </si>
-  <si>
-    <t>frons</t>
-  </si>
-  <si>
-    <t>"front-", 前额，前面（拉丁语）</t>
-  </si>
-  <si>
-    <t>front-</t>
-  </si>
-  <si>
-    <t>obliquus</t>
-  </si>
-  <si>
-    <t>"obliqu-", 倾斜的（拉丁语）</t>
-  </si>
-  <si>
-    <t>obliqu-</t>
-  </si>
-  <si>
-    <t>lumbus</t>
-  </si>
-  <si>
-    <t>"lumb-", 腰（拉丁语）</t>
-  </si>
-  <si>
-    <t>lumb-</t>
-  </si>
-  <si>
-    <t>nafela</t>
-  </si>
-  <si>
-    <t>"navel", 肚脐（古英语）</t>
-  </si>
-  <si>
-    <t>navel</t>
-  </si>
-  <si>
-    <t>umbilicus</t>
-  </si>
-  <si>
-    <t>"umbilic-", 脐（拉丁语）</t>
-  </si>
-  <si>
-    <t>umbilic-</t>
-  </si>
-  <si>
-    <t>ilium</t>
-  </si>
-  <si>
-    <t>"ili-", 髂骨（拉丁语）</t>
-  </si>
-  <si>
-    <t>ili-</t>
-  </si>
-  <si>
-    <t>grynde</t>
-  </si>
-  <si>
-    <t>"groin", 腹股沟（古英语）</t>
-  </si>
-  <si>
-    <t>groin</t>
-  </si>
-  <si>
-    <t>quadrans</t>
-  </si>
-  <si>
-    <t>"quadrant", 象限（拉丁语）</t>
-  </si>
-  <si>
-    <t>quadrant</t>
-  </si>
-  <si>
-    <t>portio</t>
-  </si>
-  <si>
-    <t>"portion", 部分（拉丁语）</t>
-  </si>
-  <si>
-    <t>portion</t>
-  </si>
-  <si>
-    <t>lim</t>
-  </si>
-  <si>
-    <t>"limb", 肢体（古英语）</t>
-  </si>
-  <si>
-    <t>limb</t>
-  </si>
-  <si>
-    <t>viscus</t>
-  </si>
-  <si>
-    <t>"viscer-", 内脏（拉丁语）</t>
-  </si>
-  <si>
-    <t>viscer-</t>
-  </si>
-  <si>
-    <t>kranion</t>
-  </si>
-  <si>
-    <t>"crani-", 颅骨（希腊语）</t>
-  </si>
-  <si>
-    <t>crani-</t>
-  </si>
-  <si>
-    <t>canalis</t>
-  </si>
-  <si>
-    <t>"canal", 管（拉丁语）</t>
-  </si>
-  <si>
-    <t>canal</t>
-  </si>
-  <si>
-    <t>phragma</t>
-  </si>
-  <si>
-    <t>"phragm-", 隔板（希腊语）</t>
-  </si>
-  <si>
-    <t>phragm-</t>
-  </si>
-  <si>
-    <t>halare</t>
-  </si>
-  <si>
-    <t>"hal-", 呼吸（拉丁语）</t>
-  </si>
-  <si>
-    <t>hal-</t>
-  </si>
-  <si>
-    <t>paries</t>
-  </si>
-  <si>
-    <t>"pariet-", 墙壁（拉丁语）</t>
-  </si>
-  <si>
-    <t>pariet-</t>
-  </si>
-  <si>
-    <t>pleura</t>
-  </si>
-  <si>
-    <t>"pleura", 胸膜（希腊语）</t>
-  </si>
-  <si>
-    <t>"pleur-", 胸膜（希腊语）</t>
-  </si>
-  <si>
-    <t>pleur-</t>
-  </si>
-  <si>
-    <t>ton-</t>
-  </si>
-  <si>
-    <t>"teinein", 伸展（希腊语）</t>
-  </si>
-  <si>
-    <t>homoios</t>
-  </si>
-  <si>
-    <t>"homeo-", 相似，相同（希腊语）</t>
-  </si>
-  <si>
-    <t>homeo-</t>
-  </si>
-  <si>
-    <t>stasis</t>
-  </si>
-  <si>
-    <t>"-stasis", 站立，稳定（希腊语）</t>
-  </si>
-  <si>
-    <t>-stasis</t>
-  </si>
-  <si>
-    <t>corium</t>
-  </si>
-  <si>
-    <t>"corium", 皮革，皮肤（拉丁语）</t>
-  </si>
-  <si>
-    <t>cornu</t>
-  </si>
-  <si>
-    <t>"corne-", 角（拉丁语）</t>
-  </si>
-  <si>
-    <t>corne-</t>
-  </si>
-  <si>
-    <t>cedere</t>
-  </si>
-  <si>
-    <t>"cess-", 行走（拉丁语）</t>
-  </si>
-  <si>
-    <t>cess-</t>
-  </si>
-  <si>
-    <t>sceaft</t>
-  </si>
-  <si>
-    <t>"shaft", 杆，轴（古英语）</t>
-  </si>
-  <si>
-    <t>shaft</t>
-  </si>
-  <si>
-    <t>arrigere</t>
-  </si>
-  <si>
-    <t>"arrect-", 竖立（拉丁语）</t>
-  </si>
-  <si>
-    <t>arrect-</t>
-  </si>
-  <si>
-    <t>cortex</t>
-  </si>
-  <si>
-    <t>"cortex", 树皮，外层（拉丁语）</t>
-  </si>
-  <si>
-    <t>folliculus</t>
-  </si>
-  <si>
-    <t>"follicle", 小囊（拉丁语）</t>
-  </si>
-  <si>
-    <t>follicle</t>
-  </si>
-  <si>
-    <t>papilla</t>
-  </si>
-  <si>
-    <t>"papilla", 乳头（拉丁语）</t>
-  </si>
-  <si>
-    <t>margo</t>
-  </si>
-  <si>
-    <t>"margin", 边缘（拉丁语）</t>
-  </si>
-  <si>
-    <t>margin</t>
-  </si>
-  <si>
-    <t>onyx</t>
-  </si>
-  <si>
-    <t>"onych-", 指甲（希腊语）</t>
-  </si>
-  <si>
-    <t>onych-</t>
-  </si>
-  <si>
-    <t>poros</t>
-  </si>
-  <si>
-    <t>"pore", 孔（希腊语）</t>
-  </si>
-  <si>
-    <t>pore</t>
-  </si>
-  <si>
-    <t>zōion</t>
-  </si>
-  <si>
-    <t>"zoo-", 动物（希腊语）</t>
-  </si>
-  <si>
-    <t>zoo-</t>
-  </si>
-  <si>
-    <t>ballein</t>
-  </si>
-  <si>
-    <t>"bol-", 抛，投掷，引申为变化（希腊语）</t>
-  </si>
-  <si>
-    <t>bol-</t>
-  </si>
-  <si>
-    <t>scēadan</t>
-  </si>
-  <si>
-    <t>"shed", 分开，脱落（古英语）</t>
-  </si>
-  <si>
-    <t>shed</t>
-  </si>
-  <si>
-    <t>pingere</t>
-  </si>
-  <si>
-    <t>"pig-", 绘画，着色（拉丁语）</t>
-  </si>
-  <si>
-    <t>pig-</t>
-  </si>
-  <si>
-    <t>viola</t>
-  </si>
-  <si>
-    <t>"violet", 紫色（拉丁语）</t>
-  </si>
-  <si>
-    <t>violet</t>
-  </si>
-  <si>
-    <t>insula</t>
-  </si>
-  <si>
-    <t>"insul-", 岛屿（拉丁语）</t>
-  </si>
-  <si>
-    <t>insul-</t>
-  </si>
-  <si>
-    <t>scēaþ</t>
-  </si>
-  <si>
-    <t>"sheath", 鞘（古英语）</t>
-  </si>
-  <si>
-    <t>sheath</t>
-  </si>
-  <si>
-    <t>brū</t>
-  </si>
-  <si>
-    <t>"brow", 眉毛，额头（古英语）</t>
-  </si>
-  <si>
-    <t>brow</t>
-  </si>
-  <si>
-    <t>filtrum</t>
-  </si>
-  <si>
-    <t>"filter", 毡，过滤（中世纪拉丁语）</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>radere</t>
-  </si>
-  <si>
-    <t>"ras-", 刮，擦（拉丁语）</t>
-  </si>
-  <si>
-    <t>ras-</t>
-  </si>
-  <si>
-    <t>ponere</t>
-  </si>
-  <si>
-    <t>"pos-", 放置（拉丁语）</t>
-  </si>
-  <si>
-    <t>pos-</t>
-  </si>
-  <si>
-    <t>jacere</t>
-  </si>
-  <si>
-    <t>"ject-", 投掷（拉丁语）</t>
-  </si>
-  <si>
-    <t>ject-</t>
-  </si>
-  <si>
-    <t>trudere</t>
-  </si>
-  <si>
-    <t>"trud-", 推，挤（拉丁语）</t>
-  </si>
-  <si>
-    <t>trud-</t>
-  </si>
-  <si>
-    <t>alescere</t>
-  </si>
-  <si>
-    <t>"olesc-", 成长（拉丁语）</t>
-  </si>
-  <si>
-    <t>olesc-</t>
-  </si>
-  <si>
-    <t>minuere</t>
-  </si>
-  <si>
-    <t>"minu-", 小（拉丁语）</t>
-  </si>
-  <si>
-    <t>minu-</t>
-  </si>
-  <si>
-    <t>odor</t>
-  </si>
-  <si>
-    <t>"odor", 气味（拉丁语）</t>
-  </si>
-  <si>
-    <t>kausos</t>
-  </si>
-  <si>
-    <t>"caus-", 燃烧（希腊语）</t>
-  </si>
-  <si>
-    <t>caus-</t>
-  </si>
-  <si>
-    <t>hidrōs</t>
-  </si>
-  <si>
-    <t>"hidr-", 汗（希腊语）</t>
-  </si>
-  <si>
-    <t>hidr-</t>
-  </si>
-  <si>
-    <t>ichthys</t>
-  </si>
-  <si>
-    <t>"ichthy-", 鱼（希腊语）</t>
-  </si>
-  <si>
-    <t>ichthy-</t>
-  </si>
-  <si>
-    <t>plax</t>
-  </si>
-  <si>
-    <t>"plak-", 扁平，斑块（希腊语）</t>
-  </si>
-  <si>
-    <t>plak-</t>
-  </si>
-  <si>
-    <t>mykēs</t>
-  </si>
-  <si>
-    <t>"myc-", 真菌（希腊语）</t>
-  </si>
-  <si>
-    <t>myc-</t>
-  </si>
-  <si>
-    <t>"onycho-", 指甲（希腊语）</t>
-  </si>
-  <si>
-    <t>onycho-</t>
-  </si>
-  <si>
-    <t>pilus</t>
-  </si>
-  <si>
-    <t>"pilo-", 毛发（拉丁语）</t>
-  </si>
-  <si>
-    <t>pilo-</t>
-  </si>
-  <si>
-    <t>rhytis</t>
-  </si>
-  <si>
-    <t>"rhytid-", 皱纹（希腊语）</t>
-  </si>
-  <si>
-    <t>rhytid-</t>
-  </si>
-  <si>
-    <t>thrix</t>
-  </si>
-  <si>
-    <t>"tricho-", 毛发（希腊语）</t>
-  </si>
-  <si>
-    <t>tricho-</t>
-  </si>
-  <si>
-    <t>opsis</t>
-  </si>
-  <si>
-    <t>"-opsy", 观察，检查（希腊语）</t>
-  </si>
-  <si>
-    <t>-opsy</t>
-  </si>
-  <si>
-    <t>gnōsis</t>
-  </si>
-  <si>
-    <t>"gnos-", 知道，认识（希腊语）</t>
-  </si>
-  <si>
-    <t>gnos-</t>
-  </si>
-  <si>
-    <t>"ced-", 行走，进行（拉丁语）</t>
-  </si>
-  <si>
-    <t>ced-</t>
-  </si>
-  <si>
-    <t>fungus</t>
-  </si>
-  <si>
-    <t>"fung-", 真菌（拉丁语）</t>
-  </si>
-  <si>
-    <t>fung-</t>
-  </si>
-  <si>
-    <t>scrape</t>
-  </si>
-  <si>
-    <t>"scraping", 刮屑（）</t>
-  </si>
-  <si>
-    <t>scraping</t>
-  </si>
-  <si>
-    <t>aknē</t>
-  </si>
-  <si>
-    <t>"acne", 痤疮（希腊语）</t>
-  </si>
-  <si>
-    <t>acne</t>
-  </si>
-  <si>
-    <t>ptom-</t>
-  </si>
-  <si>
-    <t>"piptein", 落下，发生（希腊语）</t>
-  </si>
-  <si>
-    <t>plicare</t>
-  </si>
-  <si>
-    <t>"plic-", 折叠（拉丁语）</t>
-  </si>
-  <si>
-    <t>plic-</t>
-  </si>
-  <si>
-    <t>curare</t>
-  </si>
-  <si>
-    <t>"cur-", 清洁，处理（拉丁语）</t>
-  </si>
-  <si>
-    <t>cur-</t>
-  </si>
-  <si>
-    <t>laedere</t>
-  </si>
-  <si>
-    <t>"laes-", 伤害（拉丁语）</t>
-  </si>
-  <si>
-    <t>laes-</t>
-  </si>
-  <si>
-    <t>sterilis</t>
-  </si>
-  <si>
-    <t>"sterile", 贫瘠的，无菌的（拉丁语）</t>
-  </si>
-  <si>
-    <t>sterile</t>
-  </si>
-  <si>
-    <t>chlōros</t>
-  </si>
-  <si>
-    <t>"chlor-", 绿色，氯（希腊语）</t>
-  </si>
-  <si>
-    <t>chlor-</t>
-  </si>
-  <si>
-    <t>fricare</t>
-  </si>
-  <si>
-    <t>"fric-", 摩擦（拉丁语）</t>
-  </si>
-  <si>
-    <t>fric-</t>
-  </si>
-  <si>
-    <t>severus</t>
-  </si>
-  <si>
-    <t>"sever-", 严重的（拉丁语）</t>
-  </si>
-  <si>
-    <t>sever-</t>
-  </si>
-  <si>
-    <t>salire</t>
-  </si>
-  <si>
-    <t>"sult-", 跳跃（拉丁语）</t>
-  </si>
-  <si>
-    <t>sult-</t>
-  </si>
-  <si>
-    <t>fatum</t>
-  </si>
-  <si>
-    <t>"fat-", 命运（拉丁语）</t>
-  </si>
-  <si>
-    <t>fat-</t>
-  </si>
-  <si>
-    <t>lytos</t>
-  </si>
-  <si>
-    <t>"-lyte", 可溶解的物质（希腊语）</t>
-  </si>
-  <si>
-    <t>-lyte</t>
-  </si>
-  <si>
-    <t>aisthēsis</t>
-  </si>
-  <si>
-    <t>"esthet-", 感觉（希腊语）</t>
-  </si>
-  <si>
-    <t>esthet-</t>
-  </si>
-  <si>
-    <t>minor</t>
-  </si>
-  <si>
-    <t>"minor", 较小的（拉丁语）</t>
-  </si>
-  <si>
-    <t>flamma</t>
-  </si>
-  <si>
-    <t>"flamm-", 火焰（拉丁语）</t>
-  </si>
-  <si>
-    <t>flamm-</t>
-  </si>
-  <si>
-    <t>mitis</t>
-  </si>
-  <si>
-    <t>"mit-", 温和的（拉丁语）</t>
-  </si>
-  <si>
-    <t>mit-</t>
-  </si>
-  <si>
-    <t>agere</t>
-  </si>
-  <si>
-    <t>"-ig-", 做，驱动（拉丁语）</t>
-  </si>
-  <si>
-    <t>-ig-</t>
-  </si>
-  <si>
-    <t>swellan</t>
-  </si>
-  <si>
-    <t>"swell", 肿胀（古英语）</t>
-  </si>
-  <si>
-    <t>swell</t>
-  </si>
-  <si>
-    <t>negare</t>
-  </si>
-  <si>
-    <t>"neg-", 否定（拉丁语）</t>
-  </si>
-  <si>
-    <t>neg-</t>
-  </si>
-  <si>
-    <t>broisse</t>
-  </si>
-  <si>
-    <t>"brush", 刷子（古法语）</t>
-  </si>
-  <si>
-    <t>brush</t>
-  </si>
-  <si>
-    <t>kaustos</t>
-  </si>
-  <si>
-    <t>"caust-", 燃烧，腐蚀（希腊语）</t>
-  </si>
-  <si>
-    <t>caust-</t>
-  </si>
-  <si>
-    <t>"agent", 作用剂（拉丁语）</t>
-  </si>
-  <si>
-    <t>agent</t>
-  </si>
-  <si>
-    <t>tenere</t>
-  </si>
-  <si>
-    <t>"tain", 持有（拉丁语）</t>
-  </si>
-  <si>
-    <t>tain</t>
-  </si>
-  <si>
-    <t>efen</t>
-  </si>
-  <si>
-    <t>"even", 平坦的，均匀的（古英语）</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>sār</t>
-  </si>
-  <si>
-    <t>"sore", 疼痛的，疮（古英语）</t>
-  </si>
-  <si>
-    <t>sore</t>
-  </si>
-  <si>
-    <t>volumen</t>
-  </si>
-  <si>
-    <t>"volum-", 卷，体积（拉丁语）</t>
-  </si>
-  <si>
-    <t>volum-</t>
-  </si>
-  <si>
-    <t>citare</t>
-  </si>
-  <si>
-    <t>"cit-", 唤起（拉丁语）</t>
-  </si>
-  <si>
-    <t>cit-</t>
-  </si>
-  <si>
-    <t>ōsmos</t>
-  </si>
-  <si>
-    <t>"osmo-", 推，冲，渗透（希腊语）</t>
-  </si>
-  <si>
-    <t>osmo-</t>
-  </si>
-  <si>
-    <t>dicere</t>
-  </si>
-  <si>
-    <t>"dict-", 说，命令（拉丁语）</t>
-  </si>
-  <si>
-    <t>dict-</t>
-  </si>
-  <si>
-    <t>claudere</t>
-  </si>
-  <si>
-    <t>"clud-", 关闭（拉丁语）</t>
-  </si>
-  <si>
-    <t>clud-</t>
-  </si>
-  <si>
-    <t>sequi</t>
-  </si>
-  <si>
-    <t>"sequ-", 跟随（拉丁语）</t>
-  </si>
-  <si>
-    <t>sequ-</t>
-  </si>
-  <si>
-    <t>vulgaris</t>
-  </si>
-  <si>
-    <t>"vulgar-", 普通的，寻常的（拉丁语）</t>
-  </si>
-  <si>
-    <t>vulgar-</t>
-  </si>
-  <si>
-    <t>débris</t>
-  </si>
-  <si>
-    <t>"debris", 碎片（法语）</t>
-  </si>
-  <si>
-    <t>debris</t>
-  </si>
-  <si>
-    <t>rumpere</t>
-  </si>
-  <si>
-    <t>"rupt-", 断裂（拉丁语）</t>
-  </si>
-  <si>
-    <t>rupt-</t>
-  </si>
-  <si>
-    <t>truncus</t>
-  </si>
-  <si>
-    <t>"trunk", 树干，躯干（拉丁语）</t>
-  </si>
-  <si>
-    <t>trunk</t>
-  </si>
-  <si>
-    <t>fari</t>
-  </si>
-  <si>
-    <t>"fant-", 说话（拉丁语）</t>
-  </si>
-  <si>
-    <t>fant-</t>
-  </si>
-  <si>
-    <t>menstruus</t>
-  </si>
-  <si>
-    <t>"menstru-", 月经的（拉丁语）</t>
-  </si>
-  <si>
-    <t>menstru-</t>
-  </si>
-  <si>
-    <t>humidus</t>
-  </si>
-  <si>
-    <t>"humid-", 湿的（拉丁语）</t>
-  </si>
-  <si>
-    <t>humid-</t>
-  </si>
-  <si>
-    <t>pus</t>
-  </si>
-  <si>
-    <t>"pus", 脓（拉丁语）</t>
-  </si>
-  <si>
-    <t>crusta</t>
-  </si>
-  <si>
-    <t>"crust", 外壳（拉丁语）</t>
-  </si>
-  <si>
-    <t>crust</t>
-  </si>
-  <si>
-    <t>milde</t>
-  </si>
-  <si>
-    <t>"mild", 温和的（古英语）</t>
-  </si>
-  <si>
-    <t>mild</t>
-  </si>
-  <si>
-    <t>chāmpo</t>
-  </si>
-  <si>
-    <t>"shampoo", 按摩（印地语）</t>
-  </si>
-  <si>
-    <t>shampoo</t>
-  </si>
-  <si>
-    <t>comedo</t>
-  </si>
-  <si>
-    <t>"comedo-", 粉刺（拉丁语）</t>
-  </si>
-  <si>
-    <t>comedo-</t>
-  </si>
-  <si>
-    <t>manere</t>
-  </si>
-  <si>
-    <t>"man-", 停留（拉丁语）</t>
-  </si>
-  <si>
-    <t>man-</t>
-  </si>
-  <si>
-    <t>facere</t>
-  </si>
-  <si>
-    <t>"fect-", 做，制作（拉丁语）</t>
-  </si>
-  <si>
-    <t>fect-</t>
-  </si>
-  <si>
-    <t>tumere</t>
-  </si>
-  <si>
-    <t>"tum-", 肿胀（拉丁语）</t>
-  </si>
-  <si>
-    <t>tum-</t>
-  </si>
-  <si>
-    <t>carricare</t>
-  </si>
-  <si>
-    <t>"charge", 装载（拉丁语）</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>"fungus", 真菌，蘑菇（拉丁语）</t>
+    <t>levare</t>
+  </si>
+  <si>
+    <t>"lev-", 举起，减轻（拉丁语）</t>
+  </si>
+  <si>
+    <t>lev-</t>
+  </si>
+  <si>
+    <t>circum</t>
+  </si>
+  <si>
+    <t>"circum-", 周围，环绕（拉丁语）</t>
+  </si>
+  <si>
+    <t>circum-</t>
+  </si>
+  <si>
+    <t>rota</t>
+  </si>
+  <si>
+    <t>"rot-", 轮子，转动（拉丁语）</t>
+  </si>
+  <si>
+    <t>rot-</t>
   </si>
 </sst>
 </file>
@@ -1745,6 +1520,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2039,16 +1823,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="28.353982300885" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -2159,231 +1940,231 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2439,1306 +2220,912 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B82" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B89" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B90" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B91" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B92" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>265</v>
-      </c>
-      <c r="B93" t="s">
-        <v>266</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>268</v>
-      </c>
-      <c r="B94" t="s">
-        <v>269</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>256</v>
-      </c>
-      <c r="B95" t="s">
-        <v>271</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>273</v>
-      </c>
-      <c r="B96" t="s">
-        <v>274</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>276</v>
-      </c>
-      <c r="B97" t="s">
-        <v>277</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>279</v>
-      </c>
-      <c r="B98" t="s">
-        <v>280</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>282</v>
-      </c>
-      <c r="B99" t="s">
-        <v>283</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>285</v>
-      </c>
-      <c r="B100" t="s">
-        <v>286</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2</v>
-      </c>
-      <c r="D100" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>288</v>
-      </c>
-      <c r="B101" t="s">
-        <v>289</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>291</v>
-      </c>
-      <c r="B102" t="s">
-        <v>292</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>294</v>
-      </c>
-      <c r="B103" t="s">
-        <v>295</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>297</v>
-      </c>
-      <c r="B104" t="s">
-        <v>298</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>300</v>
-      </c>
-      <c r="B105" t="s">
-        <v>301</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>303</v>
-      </c>
-      <c r="B106" t="s">
-        <v>304</v>
-      </c>
-      <c r="C106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>306</v>
-      </c>
-      <c r="B107" t="s">
-        <v>307</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>309</v>
-      </c>
-      <c r="B108" t="s">
-        <v>310</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>312</v>
-      </c>
-      <c r="B109" t="s">
-        <v>313</v>
-      </c>
-      <c r="C109" t="s">
-        <v>2</v>
-      </c>
-      <c r="D109" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>315</v>
-      </c>
-      <c r="B110" t="s">
-        <v>316</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>318</v>
-      </c>
-      <c r="B111" t="s">
-        <v>319</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>321</v>
-      </c>
-      <c r="B112" t="s">
-        <v>322</v>
-      </c>
-      <c r="C112" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>323</v>
-      </c>
-      <c r="B113" t="s">
-        <v>324</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>326</v>
-      </c>
-      <c r="B114" t="s">
-        <v>327</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>329</v>
-      </c>
-      <c r="B115" t="s">
-        <v>330</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>332</v>
-      </c>
-      <c r="B116" t="s">
-        <v>333</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>335</v>
-      </c>
-      <c r="B117" t="s">
-        <v>336</v>
-      </c>
-      <c r="C117" t="s">
-        <v>2</v>
-      </c>
-      <c r="D117" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>338</v>
-      </c>
-      <c r="B118" t="s">
-        <v>339</v>
-      </c>
-      <c r="C118" t="s">
-        <v>2</v>
-      </c>
-      <c r="D118" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>341</v>
-      </c>
-      <c r="B119" t="s">
-        <v>342</v>
-      </c>
-      <c r="C119" t="s">
-        <v>2</v>
-      </c>
-      <c r="D119" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>344</v>
-      </c>
-      <c r="B120" t="s">
-        <v>345</v>
-      </c>
-      <c r="C120" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>204</v>
-      </c>
-      <c r="B121" t="s">
-        <v>347</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s">
-        <v>204</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
